--- a/tables/treatmentDemand/currentTrends/frequencyOfUse.xlsx
+++ b/tables/treatmentDemand/currentTrends/frequencyOfUse.xlsx
@@ -42,12 +42,6 @@
     <t>Once a week or less</t>
   </si>
   <si>
-    <t>Not used in the last 30 days</t>
-  </si>
-  <si>
-    <t>Not known / missing</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>30+ days</t>
+  </si>
+  <si>
+    <t>Not known/missing</t>
   </si>
 </sst>
 </file>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>0</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2017</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2017</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2017</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2016</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2017</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2017</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2017</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2017</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2017</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2017</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2017</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2017</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2017</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2017</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2017</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2017</v>
